--- a/設計書/04検索.xlsx
+++ b/設計書/04検索.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\図書館システム機能設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m0119299f7\Desktop\library_yasuda\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791DAC49-1B45-4320-ADBB-0E3D9D722554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95718628-47A6-4834-AA0E-F18C238F7B6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -1806,7 +1805,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2006,8 +2005,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1746120" y="954901"/>
-          <a:ext cx="9506834" cy="5664974"/>
+          <a:off x="1754057" y="891401"/>
+          <a:ext cx="9475084" cy="5331599"/>
           <a:chOff x="2531933" y="1240651"/>
           <a:chExt cx="8696437" cy="5513695"/>
         </a:xfrm>
@@ -2572,8 +2571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536063" y="16433532"/>
-          <a:ext cx="9818153" cy="6040541"/>
+          <a:off x="1544000" y="15465157"/>
+          <a:ext cx="9786403" cy="5786541"/>
           <a:chOff x="13311004" y="866961"/>
           <a:chExt cx="9805165" cy="6567137"/>
         </a:xfrm>
@@ -3688,8 +3687,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1609045" y="7195704"/>
-          <a:ext cx="9644178" cy="7824185"/>
+          <a:off x="1616982" y="6751204"/>
+          <a:ext cx="9612428" cy="7363810"/>
           <a:chOff x="2180545" y="10906124"/>
           <a:chExt cx="9652218" cy="7475224"/>
         </a:xfrm>
@@ -4824,49 +4823,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC26A92-CA13-40B9-8B79-674D4E5625B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="60.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.125" customWidth="1"/>
-    <col min="6" max="10" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" customWidth="1"/>
+    <col min="6" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="7" t="s">
         <v>55</v>
       </c>
@@ -4874,7 +4871,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
@@ -4882,7 +4879,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
@@ -4890,7 +4887,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5" t="s">
         <v>52</v>
       </c>
@@ -4898,7 +4895,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
@@ -4906,7 +4903,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
@@ -4914,50 +4911,50 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1"/>
     </row>
   </sheetData>
@@ -4967,49 +4964,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A3442-AB74-4234-A907-31B0299FAFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.08203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
@@ -5020,7 +5015,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="5">
         <v>1</v>
       </c>
@@ -5066,7 +5061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="5">
         <v>2</v>
       </c>
@@ -5089,7 +5084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="5">
         <v>3</v>
       </c>
@@ -5112,7 +5107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="5">
         <v>4</v>
       </c>
@@ -5135,7 +5130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="5">
         <v>5</v>
       </c>
@@ -5158,7 +5153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="5">
         <v>6</v>
       </c>
@@ -5181,7 +5176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="5">
         <v>7</v>
       </c>
@@ -5204,7 +5199,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="5">
         <v>8</v>
       </c>
@@ -5227,7 +5222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="5">
         <v>9</v>
       </c>
@@ -5250,7 +5245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="5">
         <v>10</v>
       </c>
@@ -5273,12 +5268,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I28" s="5" t="s">
         <v>4</v>
       </c>
@@ -5301,7 +5296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I29" s="5" t="s">
         <v>136</v>
       </c>
@@ -5324,7 +5319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I30" s="5">
         <v>32</v>
       </c>
@@ -5347,7 +5342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I31" s="5">
         <v>33</v>
       </c>
@@ -5370,7 +5365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" s="5">
         <v>34</v>
       </c>
@@ -5393,7 +5388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I33" s="5">
         <v>35</v>
       </c>
@@ -5416,7 +5411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I34" s="5">
         <v>36</v>
       </c>
@@ -5439,7 +5434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="5">
         <v>37</v>
       </c>
@@ -5462,7 +5457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I36" s="5">
         <v>38</v>
       </c>
@@ -5485,7 +5480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="5">
         <v>39</v>
       </c>
@@ -5508,7 +5503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I38" s="5">
         <v>40</v>
       </c>
@@ -5531,7 +5526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I39" s="5">
         <v>41</v>
       </c>
@@ -5554,7 +5549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I40" s="5">
         <v>42</v>
       </c>
@@ -5577,7 +5572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I41" s="5">
         <v>43</v>
       </c>
@@ -5600,7 +5595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I42" s="5">
         <v>44</v>
       </c>
@@ -5623,7 +5618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="9:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="9:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I43" s="5">
         <v>45</v>
       </c>
@@ -5646,7 +5641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="9:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="44" spans="9:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I44" s="5">
         <v>46</v>
       </c>
@@ -5669,7 +5664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1" t="s">
         <v>161</v>
       </c>
@@ -5683,7 +5678,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I59" s="5" t="s">
         <v>4</v>
       </c>
@@ -5706,7 +5701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I60" s="5" t="s">
         <v>134</v>
       </c>
@@ -5729,7 +5724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" s="5">
         <v>11</v>
       </c>
@@ -5752,7 +5747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="5">
         <v>12</v>
       </c>
@@ -5775,7 +5770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" s="5">
         <v>13</v>
       </c>
@@ -5798,7 +5793,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I64" s="5">
         <v>14</v>
       </c>
@@ -5821,7 +5816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I65" s="5">
         <v>15</v>
       </c>
@@ -5844,7 +5839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" s="5">
         <v>16</v>
       </c>
@@ -5867,7 +5862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I67" s="5">
         <v>17</v>
       </c>
@@ -5890,7 +5885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="68" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I68" s="5">
         <v>18</v>
       </c>
@@ -5913,7 +5908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="69" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I69" s="5">
         <v>19</v>
       </c>
@@ -5936,7 +5931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="70" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I70" s="5">
         <v>20</v>
       </c>
@@ -5959,7 +5954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="71" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I71" s="5">
         <v>21</v>
       </c>
@@ -5982,7 +5977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="72" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I72" s="5">
         <v>22</v>
       </c>
@@ -6005,7 +6000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="73" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I73" s="5">
         <v>23</v>
       </c>
@@ -6028,7 +6023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="74" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I74" s="5">
         <v>24</v>
       </c>
@@ -6051,7 +6046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="75" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I75" s="5">
         <v>25</v>
       </c>
@@ -6074,7 +6069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="76" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I76" s="5">
         <v>26</v>
       </c>
@@ -6097,7 +6092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="77" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I77" s="5">
         <v>27</v>
       </c>
@@ -6120,7 +6115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="78" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I78" s="5">
         <v>28</v>
       </c>
@@ -6143,7 +6138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="79" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I79" s="5">
         <v>29</v>
       </c>
@@ -6166,7 +6161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="80" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I80" s="5">
         <v>30</v>
       </c>
@@ -6189,7 +6184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="81" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I81" s="5">
         <v>31</v>
       </c>
@@ -6221,16 +6216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C961E6-AFBA-40CF-9F40-B85224B796D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6243,28 +6236,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA677CA7-E0A4-472E-AACA-88B5C437F42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="53.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" customWidth="1"/>
+    <col min="4" max="4" width="53.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="30.125" customWidth="1"/>
+    <col min="10" max="10" width="30.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -6272,7 +6263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -6293,7 +6284,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -6315,7 +6306,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -6337,7 +6328,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -6358,7 +6349,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -6379,7 +6370,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -6400,7 +6391,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -6421,7 +6412,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -6442,7 +6433,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -6462,7 +6453,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -6482,7 +6473,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -6509,27 +6500,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EC8F0-9644-4BB5-9EF3-32CAFD739C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6543,7 +6532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6558,7 +6547,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6579,28 +6568,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADA325-B524-45A1-B671-411BA58E9557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -6611,7 +6598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6622,7 +6609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6633,7 +6620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6644,7 +6631,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
     </row>
   </sheetData>
@@ -6654,24 +6641,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237E96D9-9059-446F-A39D-F80C3A473A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -6684,7 +6669,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -6707,7 +6692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6730,7 +6715,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6749,7 +6734,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6768,7 +6753,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6787,7 +6772,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6806,7 +6791,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -6825,7 +6810,7 @@
       </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -6846,7 +6831,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -6867,7 +6852,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -6895,29 +6880,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42522D73-4E65-4C89-8884-6AF70FD997A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6946,7 +6931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
